--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nid1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nid1-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>93.42766950000001</v>
+        <v>71.74534249999999</v>
       </c>
       <c r="H2">
-        <v>186.855339</v>
+        <v>143.490685</v>
       </c>
       <c r="I2">
-        <v>0.319845868560297</v>
+        <v>0.3162725852314364</v>
       </c>
       <c r="J2">
-        <v>0.2501060805639032</v>
+        <v>0.2568829979436479</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N2">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O2">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P2">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q2">
-        <v>1400.426110618343</v>
+        <v>1476.113213502135</v>
       </c>
       <c r="R2">
-        <v>5601.704442473371</v>
+        <v>5904.452854008539</v>
       </c>
       <c r="S2">
-        <v>0.01774327767504522</v>
+        <v>0.02353792890154534</v>
       </c>
       <c r="T2">
-        <v>0.009738608381748308</v>
+        <v>0.01360393096171077</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>93.42766950000001</v>
+        <v>71.74534249999999</v>
       </c>
       <c r="H3">
-        <v>186.855339</v>
+        <v>143.490685</v>
       </c>
       <c r="I3">
-        <v>0.319845868560297</v>
+        <v>0.3162725852314364</v>
       </c>
       <c r="J3">
-        <v>0.2501060805639032</v>
+        <v>0.2568829979436479</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P3">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q3">
-        <v>5442.674946563564</v>
+        <v>4179.560297791352</v>
       </c>
       <c r="R3">
-        <v>32656.04967938138</v>
+        <v>25077.36178674811</v>
       </c>
       <c r="S3">
-        <v>0.06895822074414863</v>
+        <v>0.06664678036160147</v>
       </c>
       <c r="T3">
-        <v>0.05677280591797743</v>
+        <v>0.05777854559667754</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.42766950000001</v>
+        <v>71.74534249999999</v>
       </c>
       <c r="H4">
-        <v>186.855339</v>
+        <v>143.490685</v>
       </c>
       <c r="I4">
-        <v>0.319845868560297</v>
+        <v>0.3162725852314364</v>
       </c>
       <c r="J4">
-        <v>0.2501060805639032</v>
+        <v>0.2568829979436479</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N4">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O4">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P4">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q4">
-        <v>7490.929358343932</v>
+        <v>4271.414137905882</v>
       </c>
       <c r="R4">
-        <v>44945.57615006359</v>
+        <v>25628.48482743529</v>
       </c>
       <c r="S4">
-        <v>0.09490942695331359</v>
+        <v>0.06811147096810323</v>
       </c>
       <c r="T4">
-        <v>0.07813824686977795</v>
+        <v>0.05904833976428216</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.42766950000001</v>
+        <v>71.74534249999999</v>
       </c>
       <c r="H5">
-        <v>186.855339</v>
+        <v>143.490685</v>
       </c>
       <c r="I5">
-        <v>0.319845868560297</v>
+        <v>0.3162725852314364</v>
       </c>
       <c r="J5">
-        <v>0.2501060805639032</v>
+        <v>0.2568829979436479</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N5">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O5">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P5">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q5">
-        <v>2401.890660145581</v>
+        <v>2279.366319635145</v>
       </c>
       <c r="R5">
-        <v>9607.562640582324</v>
+        <v>9117.46527854058</v>
       </c>
       <c r="S5">
-        <v>0.0304317468839848</v>
+        <v>0.03634650911691166</v>
       </c>
       <c r="T5">
-        <v>0.01670282518840545</v>
+        <v>0.02100675054266116</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>93.42766950000001</v>
+        <v>71.74534249999999</v>
       </c>
       <c r="H6">
-        <v>186.855339</v>
+        <v>143.490685</v>
       </c>
       <c r="I6">
-        <v>0.319845868560297</v>
+        <v>0.3162725852314364</v>
       </c>
       <c r="J6">
-        <v>0.2501060805639032</v>
+        <v>0.2568829979436479</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N6">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O6">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P6">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q6">
-        <v>1095.533973689034</v>
+        <v>2257.501950423384</v>
       </c>
       <c r="R6">
-        <v>6573.203842134204</v>
+        <v>13545.01170254031</v>
       </c>
       <c r="S6">
-        <v>0.01388032067541744</v>
+        <v>0.035997862439085</v>
       </c>
       <c r="T6">
-        <v>0.01142756792853636</v>
+        <v>0.03120787118349582</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>93.42766950000001</v>
+        <v>71.74534249999999</v>
       </c>
       <c r="H7">
-        <v>186.855339</v>
+        <v>143.490685</v>
       </c>
       <c r="I7">
-        <v>0.319845868560297</v>
+        <v>0.3162725852314364</v>
       </c>
       <c r="J7">
-        <v>0.2501060805639032</v>
+        <v>0.2568829979436479</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N7">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O7">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P7">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q7">
-        <v>7413.063686612096</v>
+        <v>5370.165599307523</v>
       </c>
       <c r="R7">
-        <v>44478.38211967258</v>
+        <v>32220.99359584514</v>
       </c>
       <c r="S7">
-        <v>0.0939228756283873</v>
+        <v>0.08563203344418968</v>
       </c>
       <c r="T7">
-        <v>0.0773260262774577</v>
+        <v>0.07423755989482041</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>313.118858</v>
       </c>
       <c r="I8">
-        <v>0.3573166052255297</v>
+        <v>0.4601037839930169</v>
       </c>
       <c r="J8">
-        <v>0.4191099421838054</v>
+        <v>0.5605584150339195</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N8">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O8">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P8">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q8">
-        <v>1564.489502296023</v>
+        <v>2147.404823713812</v>
       </c>
       <c r="R8">
-        <v>9386.93701377614</v>
+        <v>12884.42894228288</v>
       </c>
       <c r="S8">
-        <v>0.0198219466549898</v>
+        <v>0.03424226651524255</v>
       </c>
       <c r="T8">
-        <v>0.01631926575564564</v>
+        <v>0.02968588049490265</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>313.118858</v>
       </c>
       <c r="I9">
-        <v>0.3573166052255297</v>
+        <v>0.4601037839930169</v>
       </c>
       <c r="J9">
-        <v>0.4191099421838054</v>
+        <v>0.5605584150339195</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P9">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q9">
-        <v>6080.297813462331</v>
+        <v>6080.297813462332</v>
       </c>
       <c r="R9">
-        <v>54722.68032116098</v>
+        <v>54722.68032116099</v>
       </c>
       <c r="S9">
-        <v>0.07703684730899314</v>
+        <v>0.09695571879202</v>
       </c>
       <c r="T9">
-        <v>0.09513582137726734</v>
+        <v>0.1260817189222604</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>313.118858</v>
       </c>
       <c r="I10">
-        <v>0.3573166052255297</v>
+        <v>0.4601037839930169</v>
       </c>
       <c r="J10">
-        <v>0.4191099421838054</v>
+        <v>0.5605584150339195</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N10">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O10">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P10">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q10">
-        <v>8368.510308905596</v>
+        <v>6213.9239998106</v>
       </c>
       <c r="R10">
-        <v>75316.59278015034</v>
+        <v>55925.31599829541</v>
       </c>
       <c r="S10">
-        <v>0.1060283016801426</v>
+        <v>0.09908650635281142</v>
       </c>
       <c r="T10">
-        <v>0.1309385043902168</v>
+        <v>0.1288526061032326</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>313.118858</v>
       </c>
       <c r="I11">
-        <v>0.3573166052255297</v>
+        <v>0.4601037839930169</v>
       </c>
       <c r="J11">
-        <v>0.4191099421838054</v>
+        <v>0.5605584150339195</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N11">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O11">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P11">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q11">
-        <v>2683.278107262255</v>
+        <v>3315.953129490925</v>
       </c>
       <c r="R11">
-        <v>16099.66864357353</v>
+        <v>19895.71877694555</v>
       </c>
       <c r="S11">
-        <v>0.0339969014970038</v>
+        <v>0.05287580131989739</v>
       </c>
       <c r="T11">
-        <v>0.02798940386909228</v>
+        <v>0.04583997727942372</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>313.118858</v>
       </c>
       <c r="I12">
-        <v>0.3573166052255297</v>
+        <v>0.4601037839930169</v>
       </c>
       <c r="J12">
-        <v>0.4191099421838054</v>
+        <v>0.5605584150339195</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N12">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O12">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P12">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q12">
-        <v>1223.878495444765</v>
+        <v>3284.145506956742</v>
       </c>
       <c r="R12">
-        <v>11014.90645900289</v>
+        <v>29557.30956261068</v>
       </c>
       <c r="S12">
-        <v>0.0155064346633788</v>
+        <v>0.05236860068590232</v>
       </c>
       <c r="T12">
-        <v>0.01914950377468599</v>
+        <v>0.06810039958752252</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>313.118858</v>
       </c>
       <c r="I13">
-        <v>0.3573166052255297</v>
+        <v>0.4601037839930169</v>
       </c>
       <c r="J13">
-        <v>0.4191099421838054</v>
+        <v>0.5605584150339195</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N13">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O13">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P13">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q13">
-        <v>8281.522480636742</v>
+        <v>7812.354368629376</v>
       </c>
       <c r="R13">
-        <v>74533.70232573067</v>
+        <v>70311.18931766439</v>
       </c>
       <c r="S13">
-        <v>0.1049261734210216</v>
+        <v>0.1245748903271432</v>
       </c>
       <c r="T13">
-        <v>0.1295774430168974</v>
+        <v>0.1619978326465775</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.05691833333333333</v>
+        <v>0.14495</v>
       </c>
       <c r="H14">
-        <v>0.170755</v>
+        <v>0.43485</v>
       </c>
       <c r="I14">
-        <v>0.00019485762472117</v>
+        <v>0.0006389782197958942</v>
       </c>
       <c r="J14">
-        <v>0.0002285557587770574</v>
+        <v>0.0007784865732280483</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N14">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O14">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P14">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q14">
-        <v>0.8531725194416666</v>
+        <v>2.9822508729</v>
       </c>
       <c r="R14">
-        <v>5.11903511665</v>
+        <v>17.8935052374</v>
       </c>
       <c r="S14">
-        <v>1.080962201603578E-05</v>
+        <v>4.755462411067308E-05</v>
       </c>
       <c r="T14">
-        <v>8.899483863425664E-06</v>
+        <v>4.122685300930811E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.05691833333333333</v>
+        <v>0.14495</v>
       </c>
       <c r="H15">
-        <v>0.170755</v>
+        <v>0.43485</v>
       </c>
       <c r="I15">
-        <v>0.00019485762472117</v>
+        <v>0.0006389782197958942</v>
       </c>
       <c r="J15">
-        <v>0.0002285557587770574</v>
+        <v>0.0007784865732280483</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P15">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q15">
-        <v>3.315805569071666</v>
+        <v>8.44413371035</v>
       </c>
       <c r="R15">
-        <v>29.842250121645</v>
+        <v>75.99720339315</v>
       </c>
       <c r="S15">
-        <v>4.201096972015375E-05</v>
+        <v>0.0001346491699222724</v>
       </c>
       <c r="T15">
-        <v>5.188099267810719E-05</v>
+        <v>0.0001750984780142016</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.05691833333333333</v>
+        <v>0.14495</v>
       </c>
       <c r="H16">
-        <v>0.170755</v>
+        <v>0.43485</v>
       </c>
       <c r="I16">
-        <v>0.00019485762472117</v>
+        <v>0.0006389782197958942</v>
       </c>
       <c r="J16">
-        <v>0.0002285557587770574</v>
+        <v>0.0007784865732280483</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N16">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O16">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P16">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q16">
-        <v>4.563650324111666</v>
+        <v>8.62970971655</v>
       </c>
       <c r="R16">
-        <v>41.07285291700499</v>
+        <v>77.66738744895</v>
       </c>
       <c r="S16">
-        <v>5.782105481935791E-05</v>
+        <v>0.0001376083432429996</v>
       </c>
       <c r="T16">
-        <v>7.140548627432548E-05</v>
+        <v>0.0001789466023282146</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.05691833333333333</v>
+        <v>0.14495</v>
       </c>
       <c r="H17">
-        <v>0.170755</v>
+        <v>0.43485</v>
       </c>
       <c r="I17">
-        <v>0.00019485762472117</v>
+        <v>0.0006389782197958942</v>
       </c>
       <c r="J17">
-        <v>0.0002285557587770574</v>
+        <v>0.0007784865732280483</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N17">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O17">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P17">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q17">
-        <v>1.463288273763333</v>
+        <v>4.6050954183</v>
       </c>
       <c r="R17">
-        <v>8.77972964258</v>
+        <v>27.6305725098</v>
       </c>
       <c r="S17">
-        <v>1.853973584408283E-05</v>
+        <v>7.343231369334318E-05</v>
       </c>
       <c r="T17">
-        <v>1.52636308403592E-05</v>
+        <v>6.366117405792722E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.05691833333333333</v>
+        <v>0.14495</v>
       </c>
       <c r="H18">
-        <v>0.170755</v>
+        <v>0.43485</v>
       </c>
       <c r="I18">
-        <v>0.00019485762472117</v>
+        <v>0.0006389782197958942</v>
       </c>
       <c r="J18">
-        <v>0.0002285557587770574</v>
+        <v>0.0007784865732280483</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N18">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O18">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P18">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q18">
-        <v>0.6674250596866665</v>
+        <v>4.560921954116667</v>
       </c>
       <c r="R18">
-        <v>6.006825537179999</v>
+        <v>41.04829758705001</v>
       </c>
       <c r="S18">
-        <v>8.456217769372573E-06</v>
+        <v>7.272792879266513E-05</v>
       </c>
       <c r="T18">
-        <v>1.044291467442215E-05</v>
+        <v>9.457577531352061E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.05691833333333333</v>
+        <v>0.14495</v>
       </c>
       <c r="H19">
-        <v>0.170755</v>
+        <v>0.43485</v>
       </c>
       <c r="I19">
-        <v>0.00019485762472117</v>
+        <v>0.0006389782197958942</v>
       </c>
       <c r="J19">
-        <v>0.0002285557587770574</v>
+        <v>0.0007784865732280483</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N19">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O19">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P19">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q19">
-        <v>4.516212725779445</v>
+        <v>10.84956146971667</v>
       </c>
       <c r="R19">
-        <v>40.645914532015</v>
+        <v>97.64605322745</v>
       </c>
       <c r="S19">
-        <v>5.722002455216713E-05</v>
+        <v>0.0001730058400339408</v>
       </c>
       <c r="T19">
-        <v>7.066325044641775E-05</v>
+        <v>0.000224977690504876</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>35.7744715</v>
+        <v>50.2104705</v>
       </c>
       <c r="H20">
-        <v>71.54894299999999</v>
+        <v>100.420941</v>
       </c>
       <c r="I20">
-        <v>0.1224724642115052</v>
+        <v>0.2213411318054795</v>
       </c>
       <c r="J20">
-        <v>0.09576834035349729</v>
+        <v>0.1797777491995539</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N20">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O20">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P20">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q20">
-        <v>536.2383997191725</v>
+        <v>1033.047392047911</v>
       </c>
       <c r="R20">
-        <v>2144.95359887669</v>
+        <v>4132.189568191644</v>
       </c>
       <c r="S20">
-        <v>0.006794094136132671</v>
+        <v>0.01647285306000372</v>
       </c>
       <c r="T20">
-        <v>0.003729019142477014</v>
+        <v>0.009520614864121884</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>35.7744715</v>
+        <v>50.2104705</v>
       </c>
       <c r="H21">
-        <v>71.54894299999999</v>
+        <v>100.420941</v>
       </c>
       <c r="I21">
-        <v>0.1224724642115052</v>
+        <v>0.2213411318054795</v>
       </c>
       <c r="J21">
-        <v>0.09576834035349729</v>
+        <v>0.1797777491995539</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P21">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q21">
-        <v>2084.059474046949</v>
+        <v>2925.035712739456</v>
       </c>
       <c r="R21">
-        <v>12504.3568442817</v>
+        <v>17550.21427643674</v>
       </c>
       <c r="S21">
-        <v>0.02640485325069843</v>
+        <v>0.04664227784913244</v>
       </c>
       <c r="T21">
-        <v>0.02173892529008994</v>
+        <v>0.04043590647316072</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>35.7744715</v>
+        <v>50.2104705</v>
       </c>
       <c r="H22">
-        <v>71.54894299999999</v>
+        <v>100.420941</v>
       </c>
       <c r="I22">
-        <v>0.1224724642115052</v>
+        <v>0.2213411318054795</v>
       </c>
       <c r="J22">
-        <v>0.09576834035349729</v>
+        <v>0.1797777491995539</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N22">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O22">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P22">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q22">
-        <v>2868.358381117365</v>
+        <v>2989.318973069314</v>
       </c>
       <c r="R22">
-        <v>17210.15028670419</v>
+        <v>17935.91383841589</v>
       </c>
       <c r="S22">
-        <v>0.03634185255603158</v>
+        <v>0.04766733121046226</v>
       </c>
       <c r="T22">
-        <v>0.02991998516780765</v>
+        <v>0.04132456294021409</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>35.7744715</v>
+        <v>50.2104705</v>
       </c>
       <c r="H23">
-        <v>71.54894299999999</v>
+        <v>100.420941</v>
       </c>
       <c r="I23">
-        <v>0.1224724642115052</v>
+        <v>0.2213411318054795</v>
       </c>
       <c r="J23">
-        <v>0.09576834035349729</v>
+        <v>0.1797777491995539</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N23">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O23">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P23">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q23">
-        <v>919.7100754770969</v>
+        <v>1595.198397035097</v>
       </c>
       <c r="R23">
-        <v>3678.840301908388</v>
+        <v>6380.793588140388</v>
       </c>
       <c r="S23">
-        <v>0.01165264709504851</v>
+        <v>0.02543684732974373</v>
       </c>
       <c r="T23">
-        <v>0.006395693554917292</v>
+        <v>0.01470142578834504</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>35.7744715</v>
+        <v>50.2104705</v>
       </c>
       <c r="H24">
-        <v>71.54894299999999</v>
+        <v>100.420941</v>
       </c>
       <c r="I24">
-        <v>0.1224724642115052</v>
+        <v>0.2213411318054795</v>
       </c>
       <c r="J24">
-        <v>0.09576834035349729</v>
+        <v>0.1797777491995539</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N24">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O24">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P24">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q24">
-        <v>419.4918821026579</v>
+        <v>1579.896772887046</v>
       </c>
       <c r="R24">
-        <v>2516.951292615948</v>
+        <v>9479.380637322274</v>
       </c>
       <c r="S24">
-        <v>0.005314925857308062</v>
+        <v>0.02519284941821465</v>
       </c>
       <c r="T24">
-        <v>0.004375740135246957</v>
+        <v>0.02184060791718595</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>35.7744715</v>
+        <v>50.2104705</v>
       </c>
       <c r="H25">
-        <v>71.54894299999999</v>
+        <v>100.420941</v>
       </c>
       <c r="I25">
-        <v>0.1224724642115052</v>
+        <v>0.2213411318054795</v>
       </c>
       <c r="J25">
-        <v>0.09576834035349729</v>
+        <v>0.1797777491995539</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N25">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O25">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P25">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q25">
-        <v>2838.54276793653</v>
+        <v>3758.272411956849</v>
       </c>
       <c r="R25">
-        <v>17031.25660761918</v>
+        <v>22549.63447174109</v>
       </c>
       <c r="S25">
-        <v>0.03596409131628597</v>
+        <v>0.05992897293792276</v>
       </c>
       <c r="T25">
-        <v>0.02960897706295844</v>
+        <v>0.05195463121652619</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>58.20230466666667</v>
+        <v>0.3389606666666667</v>
       </c>
       <c r="H26">
-        <v>174.606914</v>
+        <v>1.016882</v>
       </c>
       <c r="I26">
-        <v>0.1992532489352207</v>
+        <v>0.001494228929751612</v>
       </c>
       <c r="J26">
-        <v>0.2337115499809108</v>
+        <v>0.001820464490185775</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N26">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O26">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P26">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q26">
-        <v>872.4184986051034</v>
+        <v>6.973892680548001</v>
       </c>
       <c r="R26">
-        <v>5234.510991630621</v>
+        <v>41.84335608328801</v>
       </c>
       <c r="S26">
-        <v>0.01105346690712698</v>
+        <v>0.0001112048781761745</v>
       </c>
       <c r="T26">
-        <v>0.009100239604026545</v>
+        <v>9.640759972820799E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>58.20230466666667</v>
+        <v>0.3389606666666667</v>
       </c>
       <c r="H27">
-        <v>174.606914</v>
+        <v>1.016882</v>
       </c>
       <c r="I27">
-        <v>0.1992532489352207</v>
+        <v>0.001494228929751612</v>
       </c>
       <c r="J27">
-        <v>0.2337115499809108</v>
+        <v>0.001820464490185775</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P27">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q27">
-        <v>3390.603952092868</v>
+        <v>19.74632074427533</v>
       </c>
       <c r="R27">
-        <v>30515.43556883581</v>
+        <v>177.716886698478</v>
       </c>
       <c r="S27">
-        <v>0.04295865876245786</v>
+        <v>0.000314872524339198</v>
       </c>
       <c r="T27">
-        <v>0.05305133101098587</v>
+        <v>0.0004094618616075369</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>58.20230466666667</v>
+        <v>0.3389606666666667</v>
       </c>
       <c r="H28">
-        <v>174.606914</v>
+        <v>1.016882</v>
       </c>
       <c r="I28">
-        <v>0.1992532489352207</v>
+        <v>0.001494228929751612</v>
       </c>
       <c r="J28">
-        <v>0.2337115499809108</v>
+        <v>0.001820464490185775</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N28">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O28">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P28">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q28">
-        <v>4666.59775507738</v>
+        <v>20.18028395075267</v>
       </c>
       <c r="R28">
-        <v>41999.37979569641</v>
+        <v>181.622555556774</v>
       </c>
       <c r="S28">
-        <v>0.05912538986403276</v>
+        <v>0.0003217924509454476</v>
       </c>
       <c r="T28">
-        <v>0.07301626073045785</v>
+        <v>0.0004184605700097033</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>58.20230466666667</v>
+        <v>0.3389606666666667</v>
       </c>
       <c r="H29">
-        <v>174.606914</v>
+        <v>1.016882</v>
       </c>
       <c r="I29">
-        <v>0.1992532489352207</v>
+        <v>0.001494228929751612</v>
       </c>
       <c r="J29">
-        <v>0.2337115499809108</v>
+        <v>0.001820464490185775</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N29">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O29">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P29">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q29">
-        <v>1496.297325256671</v>
+        <v>10.768859696796</v>
       </c>
       <c r="R29">
-        <v>8977.783951540025</v>
+        <v>64.61315818077601</v>
       </c>
       <c r="S29">
-        <v>0.01895795767099346</v>
+        <v>0.0001717189789884194</v>
       </c>
       <c r="T29">
-        <v>0.01560794985488183</v>
+        <v>0.0001488694998237856</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>58.20230466666667</v>
+        <v>0.3389606666666667</v>
       </c>
       <c r="H30">
-        <v>174.606914</v>
+        <v>1.016882</v>
       </c>
       <c r="I30">
-        <v>0.1992532489352207</v>
+        <v>0.001494228929751612</v>
       </c>
       <c r="J30">
-        <v>0.2337115499809108</v>
+        <v>0.001820464490185775</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N30">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O30">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P30">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q30">
-        <v>682.4809229489894</v>
+        <v>10.66556154661622</v>
       </c>
       <c r="R30">
-        <v>6142.328306540904</v>
+        <v>95.99005391954601</v>
       </c>
       <c r="S30">
-        <v>0.008646974254470492</v>
+        <v>0.0001700717987502424</v>
       </c>
       <c r="T30">
-        <v>0.01067848733253004</v>
+        <v>0.0002211622480219926</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>58.20230466666667</v>
+        <v>0.3389606666666667</v>
       </c>
       <c r="H31">
-        <v>174.606914</v>
+        <v>1.016882</v>
       </c>
       <c r="I31">
-        <v>0.1992532489352207</v>
+        <v>0.001494228929751612</v>
       </c>
       <c r="J31">
-        <v>0.2337115499809108</v>
+        <v>0.001820464490185775</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N31">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O31">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P31">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q31">
-        <v>4618.090053092895</v>
+        <v>25.37133210635489</v>
       </c>
       <c r="R31">
-        <v>41562.81047783605</v>
+        <v>228.341988957194</v>
       </c>
       <c r="S31">
-        <v>0.05851080147613914</v>
+        <v>0.0004045682985521302</v>
       </c>
       <c r="T31">
-        <v>0.07225728144802862</v>
+        <v>0.0005261027109945484</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.2678446666666667</v>
+        <v>0.03386633333333334</v>
       </c>
       <c r="H32">
-        <v>0.803534</v>
+        <v>0.101599</v>
       </c>
       <c r="I32">
-        <v>0.0009169554427261318</v>
+        <v>0.0001492918205198185</v>
       </c>
       <c r="J32">
-        <v>0.001075531159106112</v>
+        <v>0.0001818867594650948</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N32">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O32">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P32">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q32">
-        <v>4.014834864203333</v>
+        <v>0.6967775242860001</v>
       </c>
       <c r="R32">
-        <v>24.08900918522</v>
+        <v>4.180665145716</v>
       </c>
       <c r="S32">
-        <v>5.086761041863078E-05</v>
+        <v>1.111073302292808E-05</v>
       </c>
       <c r="T32">
-        <v>4.187893687864999E-05</v>
+        <v>9.632303182459915E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.2678446666666667</v>
+        <v>0.03386633333333334</v>
       </c>
       <c r="H33">
-        <v>0.803534</v>
+        <v>0.101599</v>
       </c>
       <c r="I33">
-        <v>0.0009169554427261318</v>
+        <v>0.0001492918205198185</v>
       </c>
       <c r="J33">
-        <v>0.001075531159106112</v>
+        <v>0.0001818867594650948</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P33">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q33">
-        <v>15.60342310408733</v>
+        <v>1.972899944435667</v>
       </c>
       <c r="R33">
-        <v>140.430807936786</v>
+        <v>17.756099499921</v>
       </c>
       <c r="S33">
-        <v>0.0001976940209253845</v>
+        <v>3.145963209137165E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002441400929437509</v>
+        <v>4.091026852423795E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.2678446666666667</v>
+        <v>0.03386633333333334</v>
       </c>
       <c r="H34">
-        <v>0.803534</v>
+        <v>0.101599</v>
       </c>
       <c r="I34">
-        <v>0.0009169554427261318</v>
+        <v>0.0001492918205198185</v>
       </c>
       <c r="J34">
-        <v>0.001075531159106112</v>
+        <v>0.0001818867594650948</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N34">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O34">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P34">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q34">
-        <v>21.47549529755933</v>
+        <v>2.016258198210334</v>
       </c>
       <c r="R34">
-        <v>193.279457678034</v>
+        <v>18.146323783893</v>
       </c>
       <c r="S34">
-        <v>0.0002720926676420482</v>
+        <v>3.215101774208466E-05</v>
       </c>
       <c r="T34">
-        <v>0.0003360178970334916</v>
+        <v>4.180935000562095E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.2678446666666667</v>
+        <v>0.03386633333333334</v>
       </c>
       <c r="H35">
-        <v>0.803534</v>
+        <v>0.101599</v>
       </c>
       <c r="I35">
-        <v>0.0009169554427261318</v>
+        <v>0.0001492918205198185</v>
       </c>
       <c r="J35">
-        <v>0.001075531159106112</v>
+        <v>0.0001818867594650948</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N35">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O35">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P35">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q35">
-        <v>6.885900147990667</v>
+        <v>1.075941334722</v>
       </c>
       <c r="R35">
-        <v>41.315400887944</v>
+        <v>6.455648008332001</v>
       </c>
       <c r="S35">
-        <v>8.724375919732514E-05</v>
+        <v>1.715683486013562E-05</v>
       </c>
       <c r="T35">
-        <v>7.182715787928429E-05</v>
+        <v>1.48738912800077E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.2678446666666667</v>
+        <v>0.03386633333333334</v>
       </c>
       <c r="H36">
-        <v>0.803534</v>
+        <v>0.101599</v>
       </c>
       <c r="I36">
-        <v>0.0009169554427261318</v>
+        <v>0.0001492918205198185</v>
       </c>
       <c r="J36">
-        <v>0.001075531159106112</v>
+        <v>0.0001818867594650948</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N36">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O36">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P36">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q36">
-        <v>3.140749775469333</v>
+        <v>1.065620580927445</v>
       </c>
       <c r="R36">
-        <v>28.266747979224</v>
+        <v>9.590585228347001</v>
       </c>
       <c r="S36">
-        <v>3.979302795874218E-05</v>
+        <v>1.699226132552831E-05</v>
       </c>
       <c r="T36">
-        <v>4.914196948843156E-05</v>
+        <v>2.209682464316059E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.2678446666666667</v>
+        <v>0.03386633333333334</v>
       </c>
       <c r="H37">
-        <v>0.803534</v>
+        <v>0.101599</v>
       </c>
       <c r="I37">
-        <v>0.0009169554427261318</v>
+        <v>0.0001492918205198185</v>
       </c>
       <c r="J37">
-        <v>0.001075531159106112</v>
+        <v>0.0001818867594650948</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N37">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O37">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P37">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q37">
-        <v>21.25226480276689</v>
+        <v>2.534907659564778</v>
       </c>
       <c r="R37">
-        <v>191.270383224902</v>
+        <v>22.814168936083</v>
       </c>
       <c r="S37">
-        <v>0.0002692643565840009</v>
+        <v>4.042134147777017E-05</v>
       </c>
       <c r="T37">
-        <v>0.0003325251048825033</v>
+        <v>5.256412182960769E-05</v>
       </c>
     </row>
   </sheetData>
